--- a/csv/pubs.xlsx
+++ b/csv/pubs.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scaggs.32\OneDrive - The Ohio State University\Profession Development\sascaggs.github.io\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scaggs.32\OneDrive - The Ohio State University\Professional\sascaggs.github.io\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6AB4C0-C92D-4C6C-BA77-35E46AAC5407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D7552-11BC-4E50-8043-5F5E71FBA9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2424" windowWidth="21636" windowHeight="11256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="citations" sheetId="1" r:id="rId1"/>
     <sheet name="contributions" sheetId="2" r:id="rId2"/>
+    <sheet name="citations2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>Year</t>
   </si>
@@ -69,45 +73,27 @@
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Scaggs, S., Gerkey, D., McLaughlin, K. (2021). Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network. American Journal of Human Biology. Special Issue: Anthropological Insights on Adaptation and Climate Change, Vol. 33 (4): e23573. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/ajhb.23573</t>
   </si>
   <si>
     <t>Refereed Article (Special Issue)</t>
   </si>
   <si>
-    <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M. (2021). Training Wicked Scientists for a World of Wicked Problems. Humanities &amp; Social Sciences Communications. Vol. 8 (189).</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1057/s41599-021-00871-1</t>
   </si>
   <si>
     <t>Refereed Article</t>
   </si>
   <si>
-    <t xml:space="preserve">Downey, S., Gerkey, D., Scaggs, S. (2020). The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. Human Ecology, Vol. 48: 423-438. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/s10745-020-00169-x</t>
   </si>
   <si>
-    <t xml:space="preserve">Moritz, M., Scaggs, S., Shapiro, C., Hinkelman, S. (2020). Comparative Study of Territoriality across Forager Societies. Human Ecology, Vol. 48: 225-234. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/s10745-020-00141-9</t>
   </si>
   <si>
-    <t>Snopkowski, K., Demps, K., Scaggs, S., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J. (2019). Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students. Journal of the Scholarship of Teaching and Learning, Vol. 19 (5): 36-52.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.14434/josotl.v19i5.24230.</t>
   </si>
   <si>
-    <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. (2017) Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. In Li, M., Tracer, D. P. (eds.) Interdisciplinary Perspectives on Fairness, Equity, and Justice, 153-178. Springer. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/978-3-319-58993-0_10</t>
   </si>
   <si>
@@ -150,9 +136,6 @@
     <t>Resources</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
     <t>Writing - Original Draft</t>
   </si>
   <si>
@@ -168,9 +151,6 @@
     <t>2022Piperata</t>
   </si>
   <si>
-    <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (2022) Measuring food security: An introduction to tools for human biologists and ecologists. American Journal of Human Biology. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/ajhb.23821</t>
   </si>
   <si>
@@ -186,23 +166,404 @@
     <t>Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Downey, S. S., Walker, M., Moschler, J., Penados, F., Peterman, W., Rongjun, Q., Scaggs, S. A., Song, S. (2023). An intermediate level of disturbance with customary agricultural practices increases species diversity in Maya community forests in Belize. Nature Communications, Earth, and Environment. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/s43247-023-01089-6</t>
   </si>
   <si>
-    <t>Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S., A.] (2023) Reproductive Inequality in Humans and Other Mammals. Proceedings of the National Academy of Sciences, 120(22), e2220124120.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1073/pnas.2220124120</t>
+  </si>
+  <si>
+    <t>In review</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Downey S. S. Graduated sanctions, common pool resource management, and the social organization of labor in swidden agriculture . Journal TBD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024Scaggsb</t>
+  </si>
+  <si>
+    <t>In prep</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Nabors, S., Syed, Z., Downey, S. S., (in prep). A comparative analysis of the swidden agriculture, landscape structure, and ecosystem enhancement. TBD</t>
+  </si>
+  <si>
+    <t>2024Scaggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S., A.] (2023) Reproductive Inequality in Humans and Other Mammals. Proceedings of the National Academy of Sciences. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Downey, S. S., Walker, M., Moschler, J., Penados, F., Peterman, W., Rongjun, Q., Scaggs, S. A., Song, S. (2023). An intermediate level of disturbance with customary agricultural practices increases species diversity in Maya community forests in Belize. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nature Communications Earth &amp; Environment, 4 (428)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (2022) Measuring food security: An introduction to tools for human biologists and ecologists. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">American Journal of Human Biology, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35 (2).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaggs, S., Gerkey, D., McLaughlin, K. (2021). Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Journal of Human Biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Special Issue: Anthropological Insights on Adaptation and Climate Change, Vol. 33 (4): e23573. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M. (2021). Training Wicked Scientists for a World of Wicked Problems.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Humanities &amp; Social Sciences Communications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Vol. 8 (189).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Downey, S., Gerkey, D., Scaggs, S. (2020). The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Vol. 48: 423-438. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Moritz, M., Scaggs, S., Shapiro, C., Hinkelman, S. (2020). Comparative Study of Territoriality across Forager Societies.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Human Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Vol. 48: 225-234. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snopkowski, K., Demps, K., Scaggs, S., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J. (2019). Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of the Scholarship of Teaching and Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Vol. 19 (5): 36-52.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. (2017) Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. In Li, M., Tracer, D. P. (eds.) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interdisciplinary Perspectives on Fairness, Equity, and Justice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 153-178. Springer. </t>
+    </r>
+  </si>
+  <si>
+    <t>2024Tverskoi</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Downey S. S.</t>
+  </si>
+  <si>
+    <t>Graduated sanctions, common pool resource management, and the social organization of labor in swidden agriculture.</t>
+  </si>
+  <si>
+    <t>Current Anthropology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaggs, S. A., Wu, X., Syed, Z., Nabors, S., Allred, J., Qin, R., Downey, S. S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comparative analysis of the swidden agriculture, landscape structure, and ecosystem enhancement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>2024Scaggsa</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A.</t>
+  </si>
+  <si>
+    <t>The Role of Humans in a Neotropical Food Web.</t>
+  </si>
+  <si>
+    <t>2024Scaggsc</t>
+  </si>
+  <si>
+    <t>Tverskoi, D., Scaggs, S. A., Downey, S. S.</t>
+  </si>
+  <si>
+    <t>A complex adaptive systems model of labor reciprocity and normative reasoning in swidden agriculture.</t>
+  </si>
+  <si>
+    <t>bioRxiv,</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor.</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/early/2024/12/15/2024.12.12.628215.full.pdf</t>
+  </si>
+  <si>
+    <t>Preprint</t>
+  </si>
+  <si>
+    <t>Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S. A.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductive Inequality in Humans and Other Mammals. </t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Sciences,</t>
+  </si>
+  <si>
+    <t>120(22) e2220124120.</t>
+  </si>
+  <si>
+    <t>Downey, S. S., Walker, M., Moschler, J., Penados, F., Peterman, W., Rongjun, Q., Scaggs, S. A., Song, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intermediate level of disturbance with customary agricultural practices increases species diversity in Maya community forests in Belize. </t>
+  </si>
+  <si>
+    <t>Communications Earth and Environment,</t>
+  </si>
+  <si>
+    <t>4(428).</t>
+  </si>
+  <si>
+    <t>Piperata, B., Scaggs, S. A., Dufour, D., Adams, I.</t>
+  </si>
+  <si>
+    <t>Measuring food security: An introduction to tools for human biologists and ecologists.</t>
+  </si>
+  <si>
+    <t>American Journal of Human Biology,</t>
+  </si>
+  <si>
+    <t>35(2).</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Gerkey, D., McLaughlin, K.</t>
+  </si>
+  <si>
+    <t>Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network.</t>
+  </si>
+  <si>
+    <t>American Journal of Human Biology. Special Issue: Anthropological Insights on Adaptation and Climate Change,</t>
+  </si>
+  <si>
+    <t>33(4): e23573.</t>
+  </si>
+  <si>
+    <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S. A., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M.</t>
+  </si>
+  <si>
+    <t>Training Wicked Scientists for a World of Wicked Problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanities and Social Sciences Communications,</t>
+  </si>
+  <si>
+    <t>8(189).</t>
+  </si>
+  <si>
+    <t>Downey, S., Gerkey, D., Scaggs, S. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. </t>
+  </si>
+  <si>
+    <t>Human Ecology,</t>
+  </si>
+  <si>
+    <t>48(4).</t>
+  </si>
+  <si>
+    <t>Moritz, M., Scaggs, S. A., Shapiro, C., Hinkelman, S.</t>
+  </si>
+  <si>
+    <t>Comparative Study of Territoriality across Forager Societies.</t>
+  </si>
+  <si>
+    <t>48(2).</t>
+  </si>
+  <si>
+    <t>Snopkowski, K., Demps, K., Scaggs, S. A., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J.</t>
+  </si>
+  <si>
+    <t>Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students.</t>
+  </si>
+  <si>
+    <t>Journal of the Scholarship of Teaching and Learning,</t>
+  </si>
+  <si>
+    <t>19(5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Li, M., Tracer, D. P. (eds.) Interdisciplinary Perspectives on Fairness, Equity, and Justice, 153-178. Springer. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +705,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -688,12 +1063,19 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -753,10 +1135,66 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="citations"/>
+      <sheetName val="contributions"/>
+      <sheetName val="citations2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>2022Piperata</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>2021Scaggs</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>2021Kawa</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>2020Downey</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>2020Moritz</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>2019Snopkowski</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>2017Scaggs</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -794,7 +1232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -900,7 +1338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1042,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,24 +1514,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2023</v>
+      <c r="A2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1102,21 +1537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2023</v>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1124,147 +1559,187 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{722CA4C0-F288-4CD3-A8BF-1C54B2CAF1BD}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{6857A3A5-2F42-418B-9E16-94CCB9F38AC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1272,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,12 +1758,12 @@
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="str" cm="1">
-        <f t="array" ref="B1:H1">TRANSPOSE(citations!E4:E10)</f>
+        <f t="array" ref="B1:H1">TRANSPOSE([1]citations!E6:E12)</f>
         <v>2022Piperata</v>
       </c>
       <c r="C1" s="1" t="str">
@@ -1310,179 +1785,643 @@
         <v>2017Scaggs</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0496756-17EA-4092-B031-0F5EB1809855}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{25C2B7BD-CCDA-4857-BBE4-908FC69095D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/pubs.xlsx
+++ b/csv/pubs.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scaggs.32\OneDrive - The Ohio State University\Professional\sascaggs.github.io\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/scaggs_32_buckeyemail_osu_edu/Documents/Design/Professional/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D7552-11BC-4E50-8043-5F5E71FBA9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="13_ncr:1_{20FF3D1F-5C75-48D4-8315-8E748A559A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1151E50F-90A1-4D0D-9EED-24EB3A8C8A22}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2424" windowWidth="21636" windowHeight="11256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="citations" sheetId="1" r:id="rId1"/>
     <sheet name="contributions" sheetId="2" r:id="rId2"/>
     <sheet name="citations2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>Year</t>
   </si>
@@ -136,6 +133,9 @@
     <t>Resources</t>
   </si>
   <si>
+    <t>Software</t>
+  </si>
+  <si>
     <t>Writing - Original Draft</t>
   </si>
   <si>
@@ -166,34 +166,25 @@
     <t>Include</t>
   </si>
   <si>
+    <t>https://doi.org/10.1073/pnas.2220124120</t>
+  </si>
+  <si>
+    <t>2024Scaggs</t>
+  </si>
+  <si>
+    <t>2024Scaggsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Nabors, S., Syed, Z., Downey, S. S., (in prep). A comparative analysis of the swidden agriculture, landscape structure, and ecosystem enhancement. TBD</t>
+  </si>
+  <si>
+    <t>In prep</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1038/s43247-023-01089-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1073/pnas.2220124120</t>
-  </si>
-  <si>
-    <t>In review</t>
-  </si>
-  <si>
-    <t>Scaggs, S. A., Downey S. S. Graduated sanctions, common pool resource management, and the social organization of labor in swidden agriculture . Journal TBD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2024Scaggsb</t>
-  </si>
-  <si>
-    <t>In prep</t>
-  </si>
-  <si>
-    <t>Scaggs, S. A., Nabors, S., Syed, Z., Downey, S. S., (in prep). A comparative analysis of the swidden agriculture, landscape structure, and ecosystem enhancement. TBD</t>
-  </si>
-  <si>
-    <t>2024Scaggs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S., A.] (2023) Reproductive Inequality in Humans and Other Mammals. Proceedings of the National Academy of Sciences. </t>
   </si>
   <si>
     <r>
@@ -209,6 +200,162 @@
         <scheme val="minor"/>
       </rPr>
       <t>Nature Communications Earth &amp; Environment, 4 (428)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. (2017) Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. In Li, M., Tracer, D. P. (eds.) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interdisciplinary Perspectives on Fairness, Equity, and Justice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 153-178. Springer. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snopkowski, K., Demps, K., Scaggs, S., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J. (2019). Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of the Scholarship of Teaching and Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Vol. 19 (5): 36-52.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Moritz, M., Scaggs, S., Shapiro, C., Hinkelman, S. (2020). Comparative Study of Territoriality across Forager Societies.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Human Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Vol. 48: 225-234. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Downey, S., Gerkey, D., Scaggs, S. (2020). The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Human Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Vol. 48: 423-438. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M. (2021). Training Wicked Scientists for a World of Wicked Problems.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Humanities &amp; Social Sciences Communications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Vol. 8 (189).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaggs, S., Gerkey, D., McLaughlin, K. (2021). Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Journal of Human Biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Special Issue: Anthropological Insights on Adaptation and Climate Change, Vol. 33 (4): e23573. </t>
     </r>
   </si>
   <si>
@@ -238,208 +385,148 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Scaggs, S., Gerkey, D., McLaughlin, K. (2021). Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>American Journal of Human Biology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Special Issue: Anthropological Insights on Adaptation and Climate Change, Vol. 33 (4): e23573. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M. (2021). Training Wicked Scientists for a World of Wicked Problems.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Humanities &amp; Social Sciences Communications</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Vol. 8 (189).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Downey, S., Gerkey, D., Scaggs, S. (2020). The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Human Ecology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Vol. 48: 423-438. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Moritz, M., Scaggs, S., Shapiro, C., Hinkelman, S. (2020). Comparative Study of Territoriality across Forager Societies.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Human Ecology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Vol. 48: 225-234. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Snopkowski, K., Demps, K., Scaggs, S., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J. (2019). Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Journal of the Scholarship of Teaching and Learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Vol. 19 (5): 36-52.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. (2017) Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. In Li, M., Tracer, D. P. (eds.) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Interdisciplinary Perspectives on Fairness, Equity, and Justice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 153-178. Springer. </t>
-    </r>
+    <t xml:space="preserve">Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S., A.] (2023) Reproductive Inequality in Humans and Other Mammals. Proceedings of the National Academy of Sciences. </t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Downey S. S. Graduated sanctions, common pool resource management, and the social organization of labor in swidden agriculture . Journal TBD.</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Downey S. S.</t>
+  </si>
+  <si>
+    <t>Graduated sanctions, common pool resource management, and the social organization of labor in swidden agriculture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductive Inequality in Humans and Other Mammals. </t>
+  </si>
+  <si>
+    <t>Downey, S. S., Walker, M., Moschler, J., Penados, F., Peterman, W., Rongjun, Q., Scaggs, S. A., Song, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intermediate level of disturbance with customary agricultural practices increases species diversity in Maya community forests in Belize. </t>
+  </si>
+  <si>
+    <t>Measuring food security: An introduction to tools for human biologists and ecologists.</t>
+  </si>
+  <si>
+    <t>Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network.</t>
+  </si>
+  <si>
+    <t>Training Wicked Scientists for a World of Wicked Problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. </t>
+  </si>
+  <si>
+    <t>Comparative Study of Territoriality across Forager Societies.</t>
+  </si>
+  <si>
+    <t>Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Li, M., Tracer, D. P. (eds.) Interdisciplinary Perspectives on Fairness, Equity, and Justice, 153-178. Springer. </t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Sciences,</t>
+  </si>
+  <si>
+    <t>American Journal of Human Biology,</t>
+  </si>
+  <si>
+    <t>American Journal of Human Biology. Special Issue: Anthropological Insights on Adaptation and Climate Change,</t>
+  </si>
+  <si>
+    <t>Human Ecology,</t>
+  </si>
+  <si>
+    <t>Journal of the Scholarship of Teaching and Learning,</t>
+  </si>
+  <si>
+    <t>Communications Earth and Environment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanities and Social Sciences Communications,</t>
+  </si>
+  <si>
+    <t>120(22) e2220124120.</t>
+  </si>
+  <si>
+    <t>4(428).</t>
+  </si>
+  <si>
+    <t>35(2).</t>
+  </si>
+  <si>
+    <t>33(4): e23573.</t>
+  </si>
+  <si>
+    <t>8(189).</t>
+  </si>
+  <si>
+    <t>48(4).</t>
+  </si>
+  <si>
+    <t>48(2).</t>
+  </si>
+  <si>
+    <t>19(5).</t>
+  </si>
+  <si>
+    <t>Piperata, B., Scaggs, S. A., Dufour, D., Adams, I.</t>
+  </si>
+  <si>
+    <t>Scaggs, S. A., Gerkey, D., McLaughlin, K.</t>
+  </si>
+  <si>
+    <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S. A., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M.</t>
+  </si>
+  <si>
+    <t>Downey, S., Gerkey, D., Scaggs, S. A.</t>
+  </si>
+  <si>
+    <t>Moritz, M., Scaggs, S. A., Shapiro, C., Hinkelman, S.</t>
+  </si>
+  <si>
+    <t>Snopkowski, K., Demps, K., Scaggs, S. A., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J.</t>
+  </si>
+  <si>
+    <t>Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S. A.]</t>
+  </si>
+  <si>
+    <t>Tverskoi, D., Scaggs, S. A., Downey, S. S.</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/early/2024/12/15/2024.12.12.628215.full.pdf</t>
+  </si>
+  <si>
+    <t>Preprint</t>
   </si>
   <si>
     <t>2024Tverskoi</t>
   </si>
   <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Scaggs, S. A., Downey S. S.</t>
-  </si>
-  <si>
-    <t>Graduated sanctions, common pool resource management, and the social organization of labor in swidden agriculture.</t>
-  </si>
-  <si>
-    <t>Current Anthropology.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scaggs, S. A., Wu, X., Syed, Z., Nabors, S., Allred, J., Qin, R., Downey, S. S. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comparative analysis of the swidden agriculture, landscape structure, and ecosystem enhancement. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>2024Scaggsa</t>
-  </si>
-  <si>
-    <t>Scaggs, S. A.</t>
-  </si>
-  <si>
-    <t>The Role of Humans in a Neotropical Food Web.</t>
-  </si>
-  <si>
-    <t>2024Scaggsc</t>
-  </si>
-  <si>
-    <t>Tverskoi, D., Scaggs, S. A., Downey, S. S.</t>
+    <t>Cold Spring Harbor.</t>
   </si>
   <si>
     <t>A complex adaptive systems model of labor reciprocity and normative reasoning in swidden agriculture.</t>
@@ -448,115 +535,79 @@
     <t>bioRxiv,</t>
   </si>
   <si>
-    <t>Cold Spring Harbor.</t>
-  </si>
-  <si>
-    <t>https://www.biorxiv.org/content/early/2024/12/15/2024.12.12.628215.full.pdf</t>
-  </si>
-  <si>
-    <t>Preprint</t>
-  </si>
-  <si>
-    <t>Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S. A.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproductive Inequality in Humans and Other Mammals. </t>
-  </si>
-  <si>
-    <t>Proceedings of the National Academy of Sciences,</t>
-  </si>
-  <si>
-    <t>120(22) e2220124120.</t>
-  </si>
-  <si>
-    <t>Downey, S. S., Walker, M., Moschler, J., Penados, F., Peterman, W., Rongjun, Q., Scaggs, S. A., Song, S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An intermediate level of disturbance with customary agricultural practices increases species diversity in Maya community forests in Belize. </t>
-  </si>
-  <si>
-    <t>Communications Earth and Environment,</t>
-  </si>
-  <si>
-    <t>4(428).</t>
-  </si>
-  <si>
-    <t>Piperata, B., Scaggs, S. A., Dufour, D., Adams, I.</t>
-  </si>
-  <si>
-    <t>Measuring food security: An introduction to tools for human biologists and ecologists.</t>
-  </si>
-  <si>
-    <t>American Journal of Human Biology,</t>
-  </si>
-  <si>
-    <t>35(2).</t>
-  </si>
-  <si>
-    <t>Scaggs, S. A., Gerkey, D., McLaughlin, K.</t>
-  </si>
-  <si>
-    <t>Linking subsistence harvest diversity and productivity to adaptive capacity in an Alaskan food sharing network.</t>
-  </si>
-  <si>
-    <t>American Journal of Human Biology. Special Issue: Anthropological Insights on Adaptation and Climate Change,</t>
-  </si>
-  <si>
-    <t>33(4): e23573.</t>
-  </si>
-  <si>
-    <t>Kawa, N., Arceno, M. A., Goeckner, R., Hunter, C., Rhue, S., Scaggs, S. A., Biwer, M., Downey, S., Field, J., Gremillion, K., McCorriston, J., Willow, A., Newton, E., Moritz, M.</t>
-  </si>
-  <si>
-    <t>Training Wicked Scientists for a World of Wicked Problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanities and Social Sciences Communications,</t>
-  </si>
-  <si>
-    <t>8(189).</t>
-  </si>
-  <si>
-    <t>Downey, S., Gerkey, D., Scaggs, S. A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Milpa Game: a field experiment investigating the social and ecological dynamics of Q'eqchi' Maya swidden agriculture. </t>
-  </si>
-  <si>
-    <t>Human Ecology,</t>
-  </si>
-  <si>
-    <t>48(4).</t>
-  </si>
-  <si>
-    <t>Moritz, M., Scaggs, S. A., Shapiro, C., Hinkelman, S.</t>
-  </si>
-  <si>
-    <t>Comparative Study of Territoriality across Forager Societies.</t>
-  </si>
-  <si>
-    <t>48(2).</t>
-  </si>
-  <si>
-    <t>Snopkowski, K., Demps, K., Scaggs, S. A., Griffiths, R., Fulk, K., May, S., Neagle, K., Downs, K., Eugster, M., Amend, T., Heath, J.</t>
-  </si>
-  <si>
-    <t>Small Group Learning is Associated with Reduced Salivary Cortisol and Testosterone in Undergraduate Students.</t>
-  </si>
-  <si>
-    <t>Journal of the Scholarship of Teaching and Learning,</t>
-  </si>
-  <si>
-    <t>19(5).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scaggs, S. A., Fulk, K., Glass, D. J., Ziker, J. P. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Framing charitable solicitation in a behavioral experiment: Cues derived from evolutionary theory of cooperation and anthropological economics. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Li, M., Tracer, D. P. (eds.) Interdisciplinary Perspectives on Fairness, Equity, and Justice, 153-178. Springer. </t>
+    <t>In revision</t>
+  </si>
+  <si>
+    <t>2025Scaggsb</t>
+  </si>
+  <si>
+    <t>Royal Society Open Science,</t>
+  </si>
+  <si>
+    <t>12(5), 242197</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/rsos.242197</t>
+  </si>
+  <si>
+    <t>2025Tverskoi</t>
+  </si>
+  <si>
+    <t>Rao, S., Scaggs, S. A., Asuan, A., Roque, A.D.</t>
+  </si>
+  <si>
+    <t>Power outages and social vulnerability in the US Gulf Coast: multilevel Bayesian models of outage durations amid rising extreme weather</t>
+  </si>
+  <si>
+    <t>Humanities and Social Sciences Communications,</t>
+  </si>
+  <si>
+    <t>12(1), 1-12.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1057/s41599-025-05274-0</t>
+  </si>
+  <si>
+    <t>2025Rao</t>
+  </si>
+  <si>
+    <t>Scaggs, S.A., Wu, X., Syed, Z., Lebowitz, J., Qin, R., Downey, S. S.</t>
+  </si>
+  <si>
+    <t>The Landscape Ecology of Swidden: A Global Comparison Indicates Swidden Landscape Mosaics Contribute to Vegetation Diversity at Intermediate Levels of Disturbance.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2025.03.05.6415</t>
+  </si>
+  <si>
+    <t>2025Scaggsa</t>
+  </si>
+  <si>
+    <t>Downey, S. S., Tverskoi, D., Scaggs, S. A., Wu, X., Syed, Z., Lebowitz, J., Qin, R., Thurner, S.</t>
+  </si>
+  <si>
+    <t>Signatures of adaptive self-organization detected in swidden societies worldwide.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2025.08.04.668537</t>
+  </si>
+  <si>
+    <t>2025Downey</t>
+  </si>
+  <si>
+    <t>2025*</t>
+  </si>
+  <si>
+    <t>2024*</t>
+  </si>
+  <si>
+    <t>PLoS One.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the National Academy of Sciences. </t>
+  </si>
+  <si>
+    <t>2025Downeyb</t>
   </si>
 </sst>
 </file>
@@ -707,18 +758,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1069,8 +1120,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
@@ -1133,62 +1184,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="citations"/>
-      <sheetName val="contributions"/>
-      <sheetName val="citations2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>2022Piperata</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>2021Scaggs</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>2021Kawa</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>2020Downey</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>2020Moritz</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>2019Snopkowski</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>2017Scaggs</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,13 +1486,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="106.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,21 +1513,21 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1542,16 +1538,16 @@
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1562,16 +1558,16 @@
         <v>2023</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1582,16 +1578,16 @@
         <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1602,16 +1598,16 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1622,7 +1618,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1662,7 +1658,7 @@
         <v>2020</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1682,7 +1678,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1702,7 +1698,7 @@
         <v>2019</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1722,7 +1718,7 @@
         <v>2017</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1739,7 +1735,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{6857A3A5-2F42-418B-9E16-94CCB9F38AC3}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{722CA4C0-F288-4CD3-A8BF-1C54B2CAF1BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1747,15 +1743,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1763,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="str" cm="1">
-        <f t="array" ref="B1:H1">TRANSPOSE([1]citations!E6:E12)</f>
+        <f t="array" ref="B1:H1">TRANSPOSE(citations!E6:E12)</f>
         <v>2022Piperata</v>
       </c>
       <c r="C1" s="1" t="str">
@@ -1785,19 +1782,19 @@
         <v>2017Scaggs</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1905,34 +1902,7 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
         <v>1</v>
       </c>
     </row>
@@ -1946,9 +1916,6 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1962,9 +1929,6 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
@@ -1981,13 +1945,54 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
@@ -1997,23 +2002,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0496756-17EA-4092-B031-0F5EB1809855}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD8D7CE-06BF-48C3-948D-314DACAE67A2}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="82.88671875" customWidth="1"/>
+    <col min="4" max="4" width="55.44140625" customWidth="1"/>
+    <col min="5" max="6" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2021,16 +2025,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2042,21 +2046,21 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -2064,9 +2068,11 @@
       <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -2074,28 +2080,26 @@
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -2103,200 +2107,202 @@
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>2023</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2304,124 +2310,212 @@
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>2017</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I17" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{25C2B7BD-CCDA-4857-BBE4-908FC69095D7}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{823272AC-C438-4D55-A1C0-5D942F77442F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>